--- a/inventory exposure sim/uniswap_v3_lp_analysis_r1.5.xlsx
+++ b/inventory exposure sim/uniswap_v3_lp_analysis_r1.5.xlsx
@@ -518,13 +518,13 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>2.617801047120416</v>
+        <v>-2.487562189054737</v>
       </c>
       <c r="G3" t="n">
-        <v>2.617801047120438</v>
+        <v>-2.44171358788452</v>
       </c>
       <c r="H3" t="n">
-        <v>100.0000000000008</v>
+        <v>98.15688623295726</v>
       </c>
     </row>
     <row r="4">
@@ -544,13 +544,13 @@
         <v>96.29041140983034</v>
       </c>
       <c r="F4" t="n">
-        <v>2.551020408163263</v>
+        <v>-2.427184466019405</v>
       </c>
       <c r="G4" t="n">
-        <v>2.502825416151722</v>
+        <v>-2.296038226766672</v>
       </c>
       <c r="H4" t="n">
-        <v>98.11075631314759</v>
+        <v>94.59677494278738</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>92.79597630570869</v>
       </c>
       <c r="F5" t="n">
-        <v>2.487562189054726</v>
+        <v>-2.369668246445489</v>
       </c>
       <c r="G5" t="n">
-        <v>2.349995010535677</v>
+        <v>-2.161898266669204</v>
       </c>
       <c r="H5" t="n">
-        <v>94.46979942353423</v>
+        <v>91.23210685344077</v>
       </c>
     </row>
     <row r="6">
@@ -596,13 +596,13 @@
         <v>89.4917497655383</v>
       </c>
       <c r="F6" t="n">
-        <v>2.427184466019416</v>
+        <v>-2.314814814814825</v>
       </c>
       <c r="G6" t="n">
-        <v>2.209669063859909</v>
+        <v>-2.037984892470068</v>
       </c>
       <c r="H6" t="n">
-        <v>91.0383654310283</v>
+        <v>88.04094735470656</v>
       </c>
     </row>
     <row r="7">
@@ -622,13 +622,13 @@
         <v>86.35637689133098</v>
       </c>
       <c r="F7" t="n">
-        <v>2.369668246445511</v>
+        <v>-2.26244343891403</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08038277921605</v>
+        <v>-1.923176568462548</v>
       </c>
       <c r="H7" t="n">
-        <v>87.79215328291681</v>
+        <v>85.00440432604451</v>
       </c>
     </row>
     <row r="8">
@@ -648,13 +648,13 @@
         <v>83.37146293072426</v>
       </c>
       <c r="F8" t="n">
-        <v>2.314814814814814</v>
+        <v>-2.212389380530966</v>
       </c>
       <c r="G8" t="n">
-        <v>1.960887905188957</v>
+        <v>-1.816506910628513</v>
       </c>
       <c r="H8" t="n">
-        <v>84.71035750416299</v>
+        <v>82.10611236040906</v>
       </c>
     </row>
     <row r="9">
@@ -674,13 +674,13 @@
         <v>80.52107156202563</v>
       </c>
       <c r="F9" t="n">
-        <v>2.262443438914019</v>
+        <v>-2.164502164502158</v>
       </c>
       <c r="G9" t="n">
-        <v>1.850114365940358</v>
+        <v>-1.717138928200357</v>
       </c>
       <c r="H9" t="n">
-        <v>81.77505497456413</v>
+        <v>79.33181848285673</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>77.79132189321474</v>
       </c>
       <c r="F10" t="n">
-        <v>2.212389380530966</v>
+        <v>-2.118644067796616</v>
       </c>
       <c r="G10" t="n">
-        <v>1.747139744889914</v>
+        <v>-1.624344211521811</v>
       </c>
       <c r="H10" t="n">
-        <v>78.97071646902438</v>
+        <v>76.66904678382927</v>
       </c>
     </row>
     <row r="11">
@@ -726,13 +726,13 @@
         <v>75.17006221515463</v>
       </c>
       <c r="F11" t="n">
-        <v>2.164502164502169</v>
+        <v>-2.074688796680502</v>
       </c>
       <c r="G11" t="n">
-        <v>1.65116481156109</v>
+        <v>-1.537485994868359</v>
       </c>
       <c r="H11" t="n">
-        <v>76.28381429412219</v>
+        <v>74.10682495265479</v>
       </c>
     </row>
     <row r="12">
@@ -752,13 +752,13 @@
         <v>72.64660396182651</v>
       </c>
       <c r="F12" t="n">
-        <v>2.118644067796605</v>
+        <v>-2.032520325203246</v>
       </c>
       <c r="G12" t="n">
-        <v>1.561493742469566</v>
+        <v>-1.456005279780936</v>
       </c>
       <c r="H12" t="n">
-        <v>73.70250464456373</v>
+        <v>71.63545976522227</v>
       </c>
     </row>
     <row r="13">
@@ -778,13 +778,13 @@
         <v>70.21150328674831</v>
       </c>
       <c r="F13" t="n">
-        <v>2.074688796680491</v>
+        <v>-1.992031872509958</v>
       </c>
       <c r="G13" t="n">
-        <v>1.477518020164248</v>
+        <v>-1.379409394126174</v>
       </c>
       <c r="H13" t="n">
-        <v>71.216368571917</v>
+        <v>69.24635158513401</v>
       </c>
     </row>
     <row r="14">
@@ -804,13 +804,13 @@
         <v>67.85638058757965</v>
       </c>
       <c r="F14" t="n">
-        <v>2.032520325203246</v>
+        <v>-1.953125</v>
       </c>
       <c r="G14" t="n">
-        <v>1.39870323798692</v>
+        <v>-1.307262503521212</v>
       </c>
       <c r="H14" t="n">
-        <v>68.81619930895666</v>
+        <v>66.93184018028603</v>
       </c>
     </row>
     <row r="15">
@@ -830,13 +830,13 @@
         <v>65.57377049180333</v>
       </c>
       <c r="F15" t="n">
-        <v>1.992031872509958</v>
+        <v>-1.915708812260553</v>
       </c>
       <c r="G15" t="n">
-        <v>1.324578217893557</v>
+        <v>-1.239177698192273</v>
       </c>
       <c r="H15" t="n">
-        <v>66.49382653825663</v>
+        <v>64.68507584563611</v>
       </c>
     </row>
     <row r="16">
@@ -856,13 +856,13 @@
         <v>63.35699645885104</v>
       </c>
       <c r="F16" t="n">
-        <v>1.953125000000022</v>
+        <v>-1.879699248120292</v>
       </c>
       <c r="G16" t="n">
-        <v>1.254725982743854</v>
+        <v>-1.174810359135159</v>
       </c>
       <c r="H16" t="n">
-        <v>64.24197031648458</v>
+        <v>62.49991110599073</v>
       </c>
     </row>
     <row r="17">
@@ -882,13 +882,13 @@
         <v>61.20006540187661</v>
       </c>
       <c r="F17" t="n">
-        <v>1.91570881226053</v>
+        <v>-1.845018450184499</v>
       </c>
       <c r="G17" t="n">
-        <v>1.18877622537783</v>
+        <v>-1.11385256928962</v>
       </c>
       <c r="H17" t="n">
-        <v>62.05411896472292</v>
+        <v>60.37080925549747</v>
       </c>
     </row>
     <row r="18">
@@ -908,13 +908,13 @@
         <v>59.09757868820078</v>
       </c>
       <c r="F18" t="n">
-        <v>1.879699248120303</v>
+        <v>-1.81159420289857</v>
       </c>
       <c r="G18" t="n">
-        <v>1.126398993418265</v>
+        <v>-1.056028383135699</v>
       </c>
       <c r="H18" t="n">
-        <v>59.92442644985161</v>
+        <v>58.29276674908995</v>
       </c>
     </row>
     <row r="19">
@@ -934,13 +934,13 @@
         <v>57.04465661527629</v>
       </c>
       <c r="F19" t="n">
-        <v>1.845018450184521</v>
+        <v>-1.779359430604976</v>
       </c>
       <c r="G19" t="n">
-        <v>1.067299367388341</v>
+        <v>-1.001089805179356</v>
       </c>
       <c r="H19" t="n">
-        <v>57.8476257124475</v>
+        <v>56.26124705107999</v>
       </c>
     </row>
     <row r="20">
@@ -960,13 +960,13 @@
         <v>55.0368740327323</v>
       </c>
       <c r="F20" t="n">
-        <v>1.811594202898537</v>
+        <v>-1.748251748251739</v>
       </c>
       <c r="G20" t="n">
-        <v>1.011212954980323</v>
+        <v>-0.9488133567805868</v>
       </c>
       <c r="H20" t="n">
-        <v>55.81895511491426</v>
+        <v>54.27212400784985</v>
       </c>
     </row>
     <row r="21">
@@ -986,13 +986,13 @@
         <v>53.07020523024342</v>
       </c>
       <c r="F21" t="n">
-        <v>1.779359430604988</v>
+        <v>-1.718213058419238</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9579020594656651</v>
+        <v>-0.8989971336031632</v>
       </c>
       <c r="H21" t="n">
-        <v>53.83409574197021</v>
+        <v>52.32163317570429</v>
       </c>
     </row>
     <row r="22">
@@ -1012,13 +1012,13 @@
         <v>51.14097656496044</v>
       </c>
       <c r="F22" t="n">
-        <v>1.74825174825175</v>
+        <v>-1.689189189189189</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9071524077462145</v>
+        <v>-0.8514582740428378</v>
       </c>
       <c r="H22" t="n">
-        <v>51.88911772308341</v>
+        <v>50.40632982333602</v>
       </c>
     </row>
     <row r="23">
@@ -1038,13 +1038,13 @@
         <v>49.2458255829379</v>
       </c>
       <c r="F23" t="n">
-        <v>1.718213058419238</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8587703452020978</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>49.98043409076227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
